--- a/work_log_ax.xlsx
+++ b/work_log_ax.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/workspace/projects/ax-new-sites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51617EB7-1FCE-C446-A4D1-1D96A7D1E14C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{13A5C3F7-416A-454F-A3F5-CD9223FD938C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="960" windowWidth="27700" windowHeight="16280" xr2:uid="{82D0AC8E-F241-5343-9ECB-BA38EFA394FD}"/>
+    <workbookView xWindow="740" yWindow="900" windowWidth="27700" windowHeight="16280" activeTab="2" xr2:uid="{82D0AC8E-F241-5343-9ECB-BA38EFA394FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="日常工作" sheetId="1" r:id="rId1"/>
+    <sheet name="日常学习" sheetId="2" r:id="rId2"/>
+    <sheet name="日常生活" sheetId="7" r:id="rId3"/>
+    <sheet name="项目" sheetId="3" r:id="rId4"/>
+    <sheet name="学习计划" sheetId="4" r:id="rId5"/>
+    <sheet name="流水账" sheetId="5" r:id="rId6"/>
+    <sheet name="分类" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +59,386 @@
   </si>
   <si>
     <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <rPh sb="0" eb="2">
+      <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <rPh sb="0" eb="2">
+      <t>gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <rPh sb="0" eb="2">
+      <t>sheng'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <rPh sb="0" eb="2">
+      <t>yu'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <rPh sb="0" eb="2">
+      <t>ying'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德语</t>
+    <rPh sb="0" eb="2">
+      <t>de'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程</t>
+    <rPh sb="0" eb="2">
+      <t>bian'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYTHON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redhat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由交换</t>
+    <rPh sb="0" eb="2">
+      <t>lu'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络规划</t>
+    <rPh sb="0" eb="2">
+      <t>wang'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维</t>
+    <rPh sb="0" eb="2">
+      <t>yun'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务安装</t>
+    <rPh sb="0" eb="2">
+      <t>fu'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网管</t>
+    <rPh sb="0" eb="2">
+      <t>wang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通业务</t>
+    <rPh sb="0" eb="4">
+      <t>ri'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建站点</t>
+    <rPh sb="0" eb="2">
+      <t>xin'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心</t>
+    <rPh sb="0" eb="2">
+      <t>shu'jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEVIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴</t>
+    <rPh sb="0" eb="2">
+      <t>gang'qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西班牙语</t>
+    <rPh sb="0" eb="3">
+      <t>xi'ban'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网球</t>
+    <rPh sb="0" eb="2">
+      <t>wang'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二宝</t>
+    <rPh sb="0" eb="2">
+      <t>er'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园</t>
+    <rPh sb="0" eb="3">
+      <t>you'er'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <rPh sb="0" eb="2">
+      <t>gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘火车去伦敦路途</t>
+    <rPh sb="0" eb="1">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习德语</t>
+    <rPh sb="0" eb="2">
+      <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <rPh sb="0" eb="2">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python</t>
+    <rPh sb="0" eb="2">
+      <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德语每日一课</t>
+    <rPh sb="0" eb="2">
+      <t>de'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德语学习记录</t>
+    <rPh sb="0" eb="2">
+      <t>de'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python每日学习</t>
+    <rPh sb="0" eb="2">
+      <t>mei'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mondly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sololearn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书</t>
+    <rPh sb="0" eb="2">
+      <t>du'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodly festival钢琴表演</t>
+    <rPh sb="0" eb="2">
+      <t>gang'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出色</t>
+    <rPh sb="0" eb="2">
+      <t>chu'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获第一名</t>
+    <rPh sb="0" eb="1">
+      <t>huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖杯一座，证书，奖牌</t>
+    <rPh sb="0" eb="129">
+      <t>jiang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11个月后归还奖杯</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anthony</t>
+    <rPh sb="0" eb="2">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去reading town理发</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anthony</t>
+    <rPh sb="0" eb="1">
+      <t>q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,6 +446,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -84,12 +474,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -98,9 +503,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -123,7 +537,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -476,44 +890,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CFCDD-0E0B-C14D-A0D1-367836AB16FA}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="7" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36903DC-D5D9-1D4E-952D-6F76EF41432E}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E703636-8A16-6241-9A84-2E1E168A4652}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>43170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE827C37-E047-3046-980A-183AB6DD76D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D9841-2D4E-5248-83C8-80B52D3AB87C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E65F5-E753-944B-A65A-3F5EA73A78C3}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4003F095-3A05-334E-A74E-69647A1311EE}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/work_log_ax.xlsx
+++ b/work_log_ax.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/workspace/projects/ax-new-sites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xings\Desktop\axgithome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{13A5C3F7-416A-454F-A3F5-CD9223FD938C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="900" windowWidth="27700" windowHeight="16280" activeTab="2" xr2:uid="{82D0AC8E-F241-5343-9ECB-BA38EFA394FD}"/>
+    <workbookView xWindow="735" yWindow="900" windowWidth="27705" windowHeight="16275" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="日常工作" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,7 +391,7 @@
   </si>
   <si>
     <t>奖杯一座，证书，奖牌</t>
-    <rPh sb="0" eb="129">
+    <rPh sb="0" eb="10">
       <t>jiang'bei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,17 +438,29 @@
   </si>
   <si>
     <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去比斯特购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,22 +903,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CFCDD-0E0B-C14D-A0D1-367836AB16FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="7" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="7" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,11 +947,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -948,24 +962,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36903DC-D5D9-1D4E-952D-6F76EF41432E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -976,12 +990,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -993,21 +1007,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E703636-8A16-6241-9A84-2E1E168A4652}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43169</v>
       </c>
@@ -1062,7 +1076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43169</v>
       </c>
@@ -1079,9 +1093,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43170</v>
+        <v>43169</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -1094,6 +1108,20 @@
       </c>
       <c r="F4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1103,12 +1131,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE827C37-E047-3046-980A-183AB6DD76D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,14 +1144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D9841-2D4E-5248-83C8-80B52D3AB87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,21 +1159,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E65F5-E753-944B-A65A-3F5EA73A78C3}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43169</v>
       </c>
@@ -1194,7 +1222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43169</v>
       </c>
@@ -1211,7 +1239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43169</v>
       </c>
@@ -1235,6 +1263,20 @@
       </c>
       <c r="I4" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1244,16 +1286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4003F095-3A05-334E-A74E-69647A1311EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1305,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1317,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1329,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1299,7 +1341,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1311,7 +1353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1323,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1335,7 +1377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1343,7 +1385,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1355,7 +1397,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1367,7 +1409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1379,7 +1421,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1387,7 +1429,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1399,7 +1441,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1407,7 +1449,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1461,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -1431,7 +1473,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1443,7 +1485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1455,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -1467,7 +1509,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1479,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -1491,7 +1533,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1503,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1515,7 +1557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -1527,7 +1569,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1539,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -1551,7 +1593,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1563,7 +1605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1575,7 +1617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1629,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -1599,7 +1641,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -1611,7 +1653,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -1623,7 +1665,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">

--- a/work_log_ax.xlsx
+++ b/work_log_ax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/workspace/projects/ax-new-sites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{13A5C3F7-416A-454F-A3F5-CD9223FD938C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{025E96FE-0881-AB47-A575-A2EEE6676F5B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="900" windowWidth="27700" windowHeight="16280" activeTab="2" xr2:uid="{82D0AC8E-F241-5343-9ECB-BA38EFA394FD}"/>
+    <workbookView xWindow="740" yWindow="880" windowWidth="27700" windowHeight="16280" xr2:uid="{82D0AC8E-F241-5343-9ECB-BA38EFA394FD}"/>
   </bookViews>
   <sheets>
     <sheet name="日常工作" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>奖杯一座，证书，奖牌</t>
-    <rPh sb="0" eb="129">
+    <rPh sb="0" eb="10">
       <t>jiang'bei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CFCDD-0E0B-C14D-A0D1-367836AB16FA}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -996,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E703636-8A16-6241-9A84-2E1E168A4652}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
